--- a/data/trans_orig/Q55-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q55-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F48B75-F28C-442C-B58E-0757639290D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{382DE38C-6CC3-4CA1-8EB7-2390B324E268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECDDA409-DA92-4DB8-A8F6-05E7A7AACCC7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD1A733A-3F4B-4642-8EBF-FB68F625450F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="332">
   <si>
     <t>Población según el número de personas del hogar en 2012 (Tasa respuesta: 1,48%)</t>
   </si>
@@ -111,10 +111,10 @@
     <t>40,96%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
   </si>
   <si>
     <t>59,71%</t>
@@ -129,10 +129,10 @@
     <t>54,39%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>5,11%</t>
@@ -144,7 +144,7 @@
     <t>4,65%</t>
   </si>
   <si>
-    <t>23,44%</t>
+    <t>23,66%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -213,7 +213,7 @@
     <t>5,7%</t>
   </si>
   <si>
-    <t>28,15%</t>
+    <t>22,87%</t>
   </si>
   <si>
     <t>7,04%</t>
@@ -222,13 +222,13 @@
     <t>5,19%</t>
   </si>
   <si>
-    <t>22,78%</t>
+    <t>26,4%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>80,58%</t>
+    <t>80,61%</t>
   </si>
   <si>
     <t>28,02%</t>
@@ -243,16 +243,16 @@
     <t>30,9%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>19,42%</t>
+    <t>19,39%</t>
   </si>
   <si>
     <t>51,18%</t>
@@ -267,10 +267,10 @@
     <t>53,76%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>6,03%</t>
@@ -282,7 +282,7 @@
     <t>4,45%</t>
   </si>
   <si>
-    <t>18,63%</t>
+    <t>25,04%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -306,7 +306,7 @@
     <t>5,85%</t>
   </si>
   <si>
-    <t>29,8%</t>
+    <t>29,86%</t>
   </si>
   <si>
     <t>69,21%</t>
@@ -324,10 +324,10 @@
     <t>51,46%</t>
   </si>
   <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
   </si>
   <si>
     <t>30,79%</t>
@@ -345,10 +345,10 @@
     <t>30,3%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
   </si>
   <si>
     <t>15,45%</t>
@@ -360,7 +360,7 @@
     <t>12,39%</t>
   </si>
   <si>
-    <t>37,16%</t>
+    <t>37,33%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -471,9 +471,6 @@
     <t>66,84%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
     <t>50,23%</t>
   </si>
   <si>
@@ -534,7 +531,7 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>5,21%</t>
+    <t>4,43%</t>
   </si>
   <si>
     <t>6,67%</t>
@@ -549,19 +546,19 @@
     <t>5,0%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
   </si>
   <si>
     <t>41,69%</t>
@@ -576,19 +573,19 @@
     <t>46,45%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
   </si>
   <si>
     <t>42,8%</t>
@@ -603,10 +600,10 @@
     <t>41,95%</t>
   </si>
   <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
   </si>
   <si>
     <t>7,38%</t>
@@ -621,10 +618,10 @@
     <t>5,52%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -708,10 +705,10 @@
     <t>40,22%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
   </si>
   <si>
     <t>76,84%</t>
@@ -723,10 +720,10 @@
     <t>59,78%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>50,28%</t>
@@ -783,7 +780,7 @@
     <t>34,79%</t>
   </si>
   <si>
-    <t>81,84%</t>
+    <t>81,54%</t>
   </si>
   <si>
     <t>52,85%</t>
@@ -792,7 +789,7 @@
     <t>65,21%</t>
   </si>
   <si>
-    <t>18,16%</t>
+    <t>18,46%</t>
   </si>
   <si>
     <t>32,87%</t>
@@ -843,19 +840,19 @@
     <t>38,35%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>39,27%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
   </si>
   <si>
     <t>53,74%</t>
@@ -864,19 +861,19 @@
     <t>61,65%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>60,73%</t>
   </si>
   <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>13,28%</t>
@@ -885,7 +882,7 @@
     <t>10,44%</t>
   </si>
   <si>
-    <t>30,78%</t>
+    <t>30,63%</t>
   </si>
   <si>
     <t>38,57%</t>
@@ -897,19 +894,19 @@
     <t>41,7%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
   </si>
   <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
   </si>
   <si>
     <t>61,43%</t>
@@ -921,28 +918,31 @@
     <t>37,56%</t>
   </si>
   <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
   </si>
   <si>
     <t>42,67%</t>
   </si>
   <si>
-    <t>65,53%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>37,19%</t>
+    <t>37,79%</t>
   </si>
   <si>
     <t>5,86%</t>
   </si>
   <si>
-    <t>29,65%</t>
+    <t>30,32%</t>
   </si>
   <si>
     <t>3,42%</t>
@@ -954,79 +954,85 @@
     <t>9,45%</t>
   </si>
   <si>
-    <t>31,34%</t>
+    <t>31,06%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>21,8%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>48,46%</t>
   </si>
   <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
   </si>
   <si>
     <t>53,51%</t>
   </si>
   <si>
-    <t>64,78%</t>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
 </sst>
 </file>
@@ -1438,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD62295F-F236-4C34-A004-308B8DDFC3AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1357BB39-929A-4639-AE08-B39E854DC9AF}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3593,13 +3599,13 @@
         <v>1776</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3608,13 +3614,13 @@
         <v>1776</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,7 +3676,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
@@ -3703,22 +3709,22 @@
         <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="M46" s="7">
-        <v>0</v>
-      </c>
-      <c r="N46" s="7">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,22 +3760,22 @@
         <v>13</v>
       </c>
       <c r="L47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="M47" s="7">
-        <v>0</v>
-      </c>
-      <c r="N47" s="7">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,7 +3790,7 @@
         <v>3281</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
@@ -3799,10 +3805,10 @@
         <v>7758</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>17</v>
@@ -3814,10 +3820,10 @@
         <v>11039</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>17</v>
@@ -3835,7 +3841,7 @@
         <v>2189</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>12</v>
@@ -3850,13 +3856,13 @@
         <v>1062</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M49" s="7">
         <v>3</v>
@@ -3865,13 +3871,13 @@
         <v>3251</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,22 +3913,22 @@
         <v>13</v>
       </c>
       <c r="L50" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +4002,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -4005,13 +4011,13 @@
         <v>1158</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4020,13 +4026,13 @@
         <v>1158</v>
       </c>
       <c r="O52" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4053,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H53" s="7">
         <v>5</v>
@@ -4056,13 +4062,13 @@
         <v>5324</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="L53" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -4071,13 +4077,13 @@
         <v>5324</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P53" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4098,13 @@
         <v>16231</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H54" s="7">
         <v>31</v>
@@ -4107,13 +4113,13 @@
         <v>33264</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M54" s="7">
         <v>44</v>
@@ -4122,13 +4128,13 @@
         <v>49495</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="Q54" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4149,13 @@
         <v>10552</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H55" s="7">
         <v>31</v>
@@ -4158,13 +4164,13 @@
         <v>34151</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M55" s="7">
         <v>41</v>
@@ -4173,13 +4179,13 @@
         <v>44704</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="Q55" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,7 +4206,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H56" s="7">
         <v>5</v>
@@ -4209,13 +4215,13 @@
         <v>5886</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M56" s="7">
         <v>5</v>
@@ -4224,13 +4230,13 @@
         <v>5886</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4292,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4F09C2-29C6-4C87-BF79-943F6F3354C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183AB45A-D33D-4D4A-B558-D7028DB13D2D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4327,7 +4333,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4551,7 +4557,7 @@
         <v>1871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
@@ -4566,7 +4572,7 @@
         <v>1871</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
@@ -4602,7 +4608,7 @@
         <v>1211</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -4617,7 +4623,7 @@
         <v>2013</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
@@ -4763,7 +4769,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4814,7 +4820,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4844,7 +4850,7 @@
         <v>1745</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
@@ -4859,13 +4865,13 @@
         <v>4030</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4874,13 +4880,13 @@
         <v>5774</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,7 +4901,7 @@
         <v>1761</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -4910,13 +4916,13 @@
         <v>6166</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>133</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4925,13 +4931,13 @@
         <v>7928</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4967,13 @@
         <v>2239</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4976,13 +4982,13 @@
         <v>2239</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5173,13 @@
         <v>1233</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -5182,13 +5188,13 @@
         <v>2752</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,10 +5224,10 @@
         <v>4091</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>17</v>
@@ -5233,13 +5239,13 @@
         <v>4091</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,7 +5415,7 @@
         <v>970</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
@@ -5439,13 +5445,13 @@
         <v>970</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,7 +5466,7 @@
         <v>959</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
@@ -5475,13 +5481,13 @@
         <v>1205</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5490,13 +5496,13 @@
         <v>2164</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,10 +5532,10 @@
         <v>3859</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>17</v>
@@ -5541,13 +5547,13 @@
         <v>3859</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5583,13 @@
         <v>983</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5592,13 +5598,13 @@
         <v>983</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,7 +5789,7 @@
         <v>2142</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
@@ -5798,13 +5804,13 @@
         <v>2142</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,7 +5840,7 @@
         <v>2400</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
@@ -5849,10 +5855,10 @@
         <v>4013</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>17</v>
@@ -6010,7 +6016,7 @@
         <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,7 +6031,7 @@
         <v>793</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
@@ -6055,13 +6061,13 @@
         <v>793</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,7 +6082,7 @@
         <v>826</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
@@ -6091,13 +6097,13 @@
         <v>1194</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6106,13 +6112,13 @@
         <v>2020</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,7 +6133,7 @@
         <v>793</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
@@ -6142,10 +6148,10 @@
         <v>5000</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>17</v>
@@ -6157,13 +6163,13 @@
         <v>5793</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6220,7 @@
         <v>13</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,7 +6309,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6318,7 +6324,7 @@
         <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,7 +6360,7 @@
         <v>13</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6369,7 +6375,7 @@
         <v>13</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,7 +6390,7 @@
         <v>912</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>12</v>
@@ -6399,13 +6405,13 @@
         <v>5735</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
@@ -6414,13 +6420,13 @@
         <v>6647</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,7 +6441,7 @@
         <v>1059</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
@@ -6450,13 +6456,13 @@
         <v>9219</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M43" s="7">
         <v>8</v>
@@ -6465,13 +6471,13 @@
         <v>10278</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,7 +6513,7 @@
         <v>13</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6522,7 +6528,7 @@
         <v>13</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6584,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
@@ -6611,7 +6617,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -6656,13 +6662,13 @@
         <v>2391</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -6671,13 +6677,13 @@
         <v>2391</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6692,13 +6698,13 @@
         <v>1889</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H48" s="7">
         <v>6</v>
@@ -6707,13 +6713,13 @@
         <v>7508</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M48" s="7">
         <v>8</v>
@@ -6722,13 +6728,13 @@
         <v>9397</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,10 +6749,10 @@
         <v>3009</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>17</v>
@@ -6758,13 +6764,13 @@
         <v>6763</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M49" s="7">
         <v>8</v>
@@ -6773,10 +6779,10 @@
         <v>9771</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>297</v>
@@ -7036,7 +7042,7 @@
         <v>317</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7057,13 @@
         <v>9036</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H55" s="7">
         <v>30</v>
@@ -7066,13 +7072,13 @@
         <v>38709</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M55" s="7">
         <v>40</v>
@@ -7081,13 +7087,13 @@
         <v>47745</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>254</v>
+        <v>326</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,13 +7123,13 @@
         <v>4564</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>327</v>
+        <v>233</v>
       </c>
       <c r="M56" s="7">
         <v>3</v>
@@ -7135,10 +7141,10 @@
         <v>32</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,7 +7200,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q55-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q55-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{382DE38C-6CC3-4CA1-8EB7-2390B324E268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2B61FD1-A5B2-48AF-9882-5EF6BA56E465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD1A733A-3F4B-4642-8EBF-FB68F625450F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7AE70F6-3EB4-4280-8BFA-188C82B2730D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="338">
   <si>
     <t>Población según el número de personas del hogar en 2012 (Tasa respuesta: 1,48%)</t>
   </si>
@@ -102,49 +102,49 @@
     <t>35,18%</t>
   </si>
   <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
   </si>
   <si>
     <t>40,96%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>59,71%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>54,39%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>23,03%</t>
+    <t>21,6%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>23,66%</t>
+    <t>22,82%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -159,13 +159,13 @@
     <t>20,28%</t>
   </si>
   <si>
-    <t>80,16%</t>
+    <t>80,09%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>58,59%</t>
+    <t>58,12%</t>
   </si>
   <si>
     <t>48,9%</t>
@@ -174,16 +174,16 @@
     <t>39,92%</t>
   </si>
   <si>
-    <t>80,26%</t>
+    <t>80,51%</t>
   </si>
   <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>51,1%</t>
@@ -192,13 +192,16 @@
     <t>39,8%</t>
   </si>
   <si>
+    <t>80,32%</t>
+  </si>
+  <si>
     <t>42,89%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -207,277 +210,280 @@
     <t>7,74%</t>
   </si>
   <si>
-    <t>34,63%</t>
+    <t>33,83%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>22,87%</t>
+    <t>22,5%</t>
   </si>
   <si>
     <t>7,04%</t>
   </si>
   <si>
+    <t>33,13%</t>
+  </si>
+  <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>26,4%</t>
+    <t>27,19%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>80,61%</t>
+    <t>80,58%</t>
   </si>
   <si>
     <t>28,02%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>30,9%</t>
   </si>
   <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
+    <t>50,52%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>37,49%</t>
+    <t>40,12%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -495,13 +501,16 @@
     <t>87,96%</t>
   </si>
   <si>
-    <t>50,91%</t>
+    <t>50,93%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>49,75%</t>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>40,02%</t>
@@ -510,13 +519,16 @@
     <t>12,04%</t>
   </si>
   <si>
-    <t>49,09%</t>
+    <t>49,07%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>50,25%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -525,109 +537,106 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>7,19%</t>
+    <t>7,72%</t>
   </si>
   <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>4,43%</t>
+    <t>6,43%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>41,69%</t>
   </si>
   <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
+    <t>53,58%</t>
   </si>
   <si>
     <t>46,45%</t>
   </si>
   <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
   </si>
   <si>
     <t>42,8%</t>
   </si>
   <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
   </si>
   <si>
     <t>41,95%</t>
   </si>
   <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el número de personas del hogar en 2015 (Tasa respuesta: 1,16%)</t>
+    <t>Población según el número de personas del hogar en 2016 (Tasa respuesta: 1,16%)</t>
   </si>
   <si>
     <t>60,72%</t>
@@ -651,19 +660,19 @@
     <t>32,41%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
   <si>
     <t>36,22%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
   </si>
   <si>
     <t>50,24%</t>
@@ -672,28 +681,31 @@
     <t>49,59%</t>
   </si>
   <si>
-    <t>81,59%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
   </si>
   <si>
     <t>49,73%</t>
   </si>
   <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>68,83%</t>
+    <t>59,13%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>47,86%</t>
+    <t>57,42%</t>
   </si>
   <si>
     <t>23,16%</t>
@@ -705,10 +717,10 @@
     <t>40,22%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>76,84%</t>
@@ -720,10 +732,10 @@
     <t>59,78%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>50,28%</t>
@@ -732,7 +744,7 @@
     <t>12,16%</t>
   </si>
   <si>
-    <t>55,2%</t>
+    <t>54,58%</t>
   </si>
   <si>
     <t>49,72%</t>
@@ -747,31 +759,34 @@
     <t>27,13%</t>
   </si>
   <si>
-    <t>70,84%</t>
+    <t>70,1%</t>
   </si>
   <si>
     <t>63,82%</t>
   </si>
   <si>
-    <t>21,6%</t>
+    <t>21,85%</t>
   </si>
   <si>
     <t>48,38%</t>
   </si>
   <si>
-    <t>88,39%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>16,26%</t>
   </si>
   <si>
-    <t>76,54%</t>
+    <t>75,64%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>59,51%</t>
+    <t>55,17%</t>
   </si>
   <si>
     <t>47,15%</t>
@@ -780,7 +795,7 @@
     <t>34,79%</t>
   </si>
   <si>
-    <t>81,54%</t>
+    <t>82,46%</t>
   </si>
   <si>
     <t>52,85%</t>
@@ -789,7 +804,7 @@
     <t>65,21%</t>
   </si>
   <si>
-    <t>18,46%</t>
+    <t>17,54%</t>
   </si>
   <si>
     <t>32,87%</t>
@@ -798,7 +813,7 @@
     <t>9,21%</t>
   </si>
   <si>
-    <t>41,66%</t>
+    <t>43,58%</t>
   </si>
   <si>
     <t>34,25%</t>
@@ -813,7 +828,7 @@
     <t>23,47%</t>
   </si>
   <si>
-    <t>61,48%</t>
+    <t>66,25%</t>
   </si>
   <si>
     <t>80,73%</t>
@@ -825,34 +840,31 @@
     <t>67,32%</t>
   </si>
   <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>46,26%</t>
-  </si>
-  <si>
     <t>38,35%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>39,27%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
   </si>
   <si>
     <t>53,74%</t>
@@ -861,28 +873,31 @@
     <t>61,65%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>60,73%</t>
   </si>
   <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
+    <t>41,33%</t>
+  </si>
+  <si>
     <t>10,44%</t>
   </si>
   <si>
-    <t>30,63%</t>
+    <t>30,91%</t>
   </si>
   <si>
     <t>38,57%</t>
@@ -894,145 +909,148 @@
     <t>41,7%</t>
   </si>
   <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
     <t>14,12%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1357BB39-929A-4639-AE08-B39E854DC9AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A1084D-3085-4EB0-B390-A12740B4D0B5}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2322,7 +2340,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2331,13 +2349,13 @@
         <v>3205</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,7 +2462,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -2471,13 +2489,13 @@
         <v>1158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2486,13 +2504,13 @@
         <v>1158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2540,13 @@
         <v>1053</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2537,13 +2555,13 @@
         <v>1053</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,13 +2576,13 @@
         <v>2080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -2573,13 +2591,13 @@
         <v>4192</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -2588,13 +2606,13 @@
         <v>6272</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,10 +2627,10 @@
         <v>3255</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>17</v>
@@ -2624,13 +2642,13 @@
         <v>7656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2639,13 +2657,13 @@
         <v>10911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2693,13 @@
         <v>902</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2690,13 +2708,13 @@
         <v>902</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,7 +2770,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -2770,7 +2788,7 @@
         <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2785,7 +2803,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2800,7 +2818,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,7 +2839,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -2830,13 +2848,13 @@
         <v>992</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>1</v>
@@ -2845,13 +2863,13 @@
         <v>992</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,7 +2884,7 @@
         <v>2325</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
@@ -2881,13 +2899,13 @@
         <v>6393</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -2896,13 +2914,13 @@
         <v>8719</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,7 +2935,7 @@
         <v>1035</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
@@ -2932,13 +2950,13 @@
         <v>4099</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -2947,13 +2965,13 @@
         <v>5133</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +2992,7 @@
         <v>13</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2983,13 +3001,13 @@
         <v>2099</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -2998,13 +3016,13 @@
         <v>2099</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,7 +3078,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -3078,7 +3096,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3093,7 +3111,7 @@
         <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3108,7 +3126,7 @@
         <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3147,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3144,7 +3162,7 @@
         <v>13</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3159,7 +3177,7 @@
         <v>13</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3195,7 @@
         <v>17</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>19</v>
@@ -3189,7 +3207,7 @@
         <v>2174</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
@@ -3204,10 +3222,10 @@
         <v>3197</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>17</v>
@@ -3231,7 +3249,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3240,7 +3258,7 @@
         <v>1100</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>12</v>
@@ -3255,13 +3273,13 @@
         <v>1100</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,7 +3300,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3297,7 +3315,7 @@
         <v>13</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3312,7 +3330,7 @@
         <v>13</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3386,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
@@ -3386,7 +3404,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3401,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3416,7 +3434,7 @@
         <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,7 +3455,7 @@
         <v>13</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -3446,13 +3464,13 @@
         <v>2178</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3461,13 +3479,13 @@
         <v>2178</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3500,13 @@
         <v>4400</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -3497,13 +3515,13 @@
         <v>2943</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
@@ -3512,13 +3530,13 @@
         <v>7343</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3551,13 @@
         <v>3031</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -3548,13 +3566,13 @@
         <v>5114</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M43" s="7">
         <v>8</v>
@@ -3563,13 +3581,13 @@
         <v>8145</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,7 +3608,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -3599,13 +3617,13 @@
         <v>1776</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -3614,13 +3632,13 @@
         <v>1776</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,7 +3694,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
@@ -3694,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H46" s="7">
         <v>0</v>
@@ -3709,7 +3727,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -3724,7 +3742,7 @@
         <v>13</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,7 +3763,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -3760,7 +3778,7 @@
         <v>13</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -3775,7 +3793,7 @@
         <v>13</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3808,7 @@
         <v>3281</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
@@ -3805,10 +3823,10 @@
         <v>7758</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>17</v>
@@ -3820,13 +3838,13 @@
         <v>11039</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3859,7 @@
         <v>2189</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>12</v>
@@ -3856,13 +3874,13 @@
         <v>1062</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M49" s="7">
         <v>3</v>
@@ -3871,13 +3889,13 @@
         <v>3251</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,7 +3916,7 @@
         <v>13</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -3913,7 +3931,7 @@
         <v>13</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -3928,7 +3946,7 @@
         <v>13</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,7 +4020,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -4011,13 +4029,13 @@
         <v>1158</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4026,13 +4044,13 @@
         <v>1158</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,7 +4071,7 @@
         <v>13</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H53" s="7">
         <v>5</v>
@@ -4062,13 +4080,13 @@
         <v>5324</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -4077,13 +4095,13 @@
         <v>5324</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,13 +4116,13 @@
         <v>16231</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H54" s="7">
         <v>31</v>
@@ -4113,13 +4131,13 @@
         <v>33264</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M54" s="7">
         <v>44</v>
@@ -4128,13 +4146,13 @@
         <v>49495</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4167,13 @@
         <v>10552</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H55" s="7">
         <v>31</v>
@@ -4164,13 +4182,13 @@
         <v>34151</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M55" s="7">
         <v>41</v>
@@ -4179,13 +4197,13 @@
         <v>44704</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4224,7 @@
         <v>13</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H56" s="7">
         <v>5</v>
@@ -4215,13 +4233,13 @@
         <v>5886</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M56" s="7">
         <v>5</v>
@@ -4230,13 +4248,13 @@
         <v>5886</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,7 +4310,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +4334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183AB45A-D33D-4D4A-B558-D7028DB13D2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1FEC28-3789-49E8-863D-0ECAF1516AA7}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4333,7 +4351,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4446,7 +4464,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4476,7 +4494,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,7 +4515,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4527,7 +4545,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,7 +4566,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4557,7 +4575,7 @@
         <v>1871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
@@ -4572,7 +4590,7 @@
         <v>1871</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
@@ -4596,7 +4614,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
@@ -4608,7 +4626,7 @@
         <v>1211</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
@@ -4623,7 +4641,7 @@
         <v>2013</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
@@ -4650,7 +4668,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4680,7 +4698,7 @@
         <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +4772,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4769,7 +4787,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4784,7 +4802,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,7 +4823,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4820,7 +4838,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4835,7 +4853,7 @@
         <v>13</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,7 +4868,7 @@
         <v>1745</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
@@ -4865,13 +4883,13 @@
         <v>4030</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4880,13 +4898,13 @@
         <v>5774</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,7 +4919,7 @@
         <v>1761</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -4916,13 +4934,13 @@
         <v>6166</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -4931,13 +4949,13 @@
         <v>7928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,7 +4976,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4967,13 +4985,13 @@
         <v>2239</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4982,13 +5000,13 @@
         <v>2239</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,7 +5095,7 @@
         <v>13</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5092,7 +5110,7 @@
         <v>13</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,7 +5146,7 @@
         <v>13</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5143,7 +5161,7 @@
         <v>13</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,13 +5191,13 @@
         <v>1233</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -5188,13 +5206,13 @@
         <v>2752</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,10 +5242,10 @@
         <v>4091</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>17</v>
@@ -5239,13 +5257,13 @@
         <v>4091</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5299,7 @@
         <v>13</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5296,7 +5314,7 @@
         <v>13</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,7 +5370,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
@@ -5415,7 +5433,7 @@
         <v>970</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
@@ -5445,13 +5463,13 @@
         <v>970</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,7 +5484,7 @@
         <v>959</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
@@ -5481,13 +5499,13 @@
         <v>1205</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5496,13 +5514,13 @@
         <v>2164</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,10 +5550,10 @@
         <v>3859</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>17</v>
@@ -5547,13 +5565,13 @@
         <v>3859</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,13 +5601,13 @@
         <v>983</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5598,13 +5616,13 @@
         <v>983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,7 +5678,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
@@ -5693,7 +5711,7 @@
         <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5708,7 +5726,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,7 +5762,7 @@
         <v>13</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5759,7 +5777,7 @@
         <v>13</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,7 +5807,7 @@
         <v>2142</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>12</v>
@@ -5804,13 +5822,13 @@
         <v>2142</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,7 +5858,7 @@
         <v>2400</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>12</v>
@@ -5855,10 +5873,10 @@
         <v>4013</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>17</v>
@@ -5897,7 +5915,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5912,7 +5930,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,7 +5986,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
@@ -5986,7 +6004,7 @@
         <v>13</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6016,7 +6034,7 @@
         <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,7 +6049,7 @@
         <v>793</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>12</v>
@@ -6061,13 +6079,13 @@
         <v>793</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,7 +6100,7 @@
         <v>826</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>12</v>
@@ -6097,13 +6115,13 @@
         <v>1194</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -6112,13 +6130,13 @@
         <v>2020</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6151,7 @@
         <v>793</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>12</v>
@@ -6148,10 +6166,10 @@
         <v>5000</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>17</v>
@@ -6163,13 +6181,13 @@
         <v>5793</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6208,7 @@
         <v>13</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6220,7 +6238,7 @@
         <v>13</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,7 +6294,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
@@ -6309,7 +6327,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -6324,7 +6342,7 @@
         <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,7 +6378,7 @@
         <v>13</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -6375,7 +6393,7 @@
         <v>13</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,7 +6408,7 @@
         <v>912</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>12</v>
@@ -6405,13 +6423,13 @@
         <v>5735</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
@@ -6420,13 +6438,13 @@
         <v>6647</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,7 +6459,7 @@
         <v>1059</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>12</v>
@@ -6456,13 +6474,13 @@
         <v>9219</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M43" s="7">
         <v>8</v>
@@ -6471,13 +6489,13 @@
         <v>10278</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,7 +6531,7 @@
         <v>13</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -6528,7 +6546,7 @@
         <v>13</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,7 +6602,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
@@ -6617,7 +6635,7 @@
         <v>13</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -6662,13 +6680,13 @@
         <v>2391</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -6677,13 +6695,13 @@
         <v>2391</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6716,13 @@
         <v>1889</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H48" s="7">
         <v>6</v>
@@ -6713,13 +6731,13 @@
         <v>7508</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M48" s="7">
         <v>8</v>
@@ -6728,13 +6746,13 @@
         <v>9397</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,10 +6767,10 @@
         <v>3009</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>17</v>
@@ -6764,13 +6782,13 @@
         <v>6763</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M49" s="7">
         <v>8</v>
@@ -6779,13 +6797,13 @@
         <v>9771</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,13 +6833,13 @@
         <v>1342</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -6830,13 +6848,13 @@
         <v>1342</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,7 +6943,7 @@
         <v>13</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -6940,7 +6958,7 @@
         <v>13</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6973,13 @@
         <v>1762</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="H53" s="7">
         <v>2</v>
@@ -6970,13 +6988,13 @@
         <v>2391</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M53" s="7">
         <v>4</v>
@@ -6988,10 +7006,10 @@
         <v>34</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +7024,13 @@
         <v>7849</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H54" s="7">
         <v>20</v>
@@ -7021,13 +7039,13 @@
         <v>24918</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M54" s="7">
         <v>29</v>
@@ -7036,13 +7054,13 @@
         <v>32767</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7075,13 @@
         <v>9036</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H55" s="7">
         <v>30</v>
@@ -7072,13 +7090,13 @@
         <v>38709</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M55" s="7">
         <v>40</v>
@@ -7087,13 +7105,13 @@
         <v>47745</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,13 +7141,13 @@
         <v>4564</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="M56" s="7">
         <v>3</v>
@@ -7141,10 +7159,10 @@
         <v>32</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,7 +7218,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
